--- a/Esforços horizontais.xlsx
+++ b/Esforços horizontais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27920"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/387907e3ca98358a/Ponte1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{CB302707-4651-4B4B-A438-4577CA1AE151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="14_{CB302707-4651-4B4B-A438-4577CA1AE151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ED22354-CC4F-41E0-BBAE-472897A7B015}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A522DB1F-D205-493C-92BD-FD0547947D96}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>kN</t>
   </si>
@@ -111,13 +111,61 @@
   <si>
     <t>Fti(kN)</t>
   </si>
+  <si>
+    <t>Resumo do esforços</t>
+  </si>
+  <si>
+    <t>P1(kN)</t>
+  </si>
+  <si>
+    <t>P2(kN)</t>
+  </si>
+  <si>
+    <t>P3(kN)</t>
+  </si>
+  <si>
+    <t>Frenagem + empuxo diferencial</t>
+  </si>
+  <si>
+    <t>Temperatura e retração</t>
+  </si>
+  <si>
+    <t>Vento longitudinal</t>
+  </si>
+  <si>
+    <t>Hlong por fuste de pilar</t>
+  </si>
+  <si>
+    <t>Vento transversal por pórtico</t>
+  </si>
+  <si>
+    <t>P4(kN)</t>
+  </si>
+  <si>
+    <t>Empuxo de terra *</t>
+  </si>
+  <si>
+    <t>alfa =</t>
+  </si>
+  <si>
+    <t>delta_T</t>
+  </si>
+  <si>
+    <t>HT(kN)</t>
+  </si>
+  <si>
+    <t>Empuxo de terra P3 =</t>
+  </si>
+  <si>
+    <t>Empuxo de terra P2 =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -162,13 +210,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -504,22 +552,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C396DC-BC04-48AB-8BFA-35EEB05141A0}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -562,8 +610,11 @@
       <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -576,7 +627,7 @@
       </c>
       <c r="H2" s="4">
         <f>G2*$B$8</f>
-        <v>51.220625354144133</v>
+        <v>51.173891206923194</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -609,15 +660,19 @@
       </c>
       <c r="R2" s="6">
         <f>Q2*$B$6</f>
-        <v>181.31114563893152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>181.32762847035323</v>
+      </c>
+      <c r="S2" s="6">
+        <f>$M$10*$M$11*K2*P2</f>
+        <v>35.795319051666411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>229</v>
+        <v>228.75</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -634,7 +689,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H5" si="1">G3*$B$8</f>
-        <v>43.655385566373049</v>
+        <v>43.615554010199354</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -667,10 +722,14 @@
       </c>
       <c r="R3" s="6">
         <f t="shared" ref="R3:R5" si="7">Q3*$B$6</f>
-        <v>129.50229789529209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>129.51407083146438</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" ref="S3:S5" si="8">$M$10*$M$11*K3*P3</f>
+        <v>15.043382977901405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -692,7 +751,7 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" si="1"/>
-        <v>85.2783186524494</v>
+        <v>85.200509967547532</v>
       </c>
       <c r="J4" s="1">
         <v>3</v>
@@ -725,15 +784,19 @@
       </c>
       <c r="R4" s="6">
         <f t="shared" si="7"/>
-        <v>191.8586064090654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>191.87604810055711</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="8"/>
+        <v>-8.3761049296862922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>165</v>
+        <v>165.01</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -750,7 +813,7 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>93.845670427033426</v>
+        <v>93.760044815329934</v>
       </c>
       <c r="J5" s="1">
         <v>4</v>
@@ -783,15 +846,19 @@
       </c>
       <c r="R5" s="6">
         <f t="shared" si="7"/>
-        <v>157.32795005671105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>157.34225259762528</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="8"/>
+        <v>-42.462597099881528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>660</v>
+        <v>660.06</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -809,7 +876,7 @@
       </c>
       <c r="H6" s="4">
         <f>SUM(H2:H5)</f>
-        <v>274</v>
+        <v>273.75</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
@@ -833,16 +900,20 @@
       </c>
       <c r="R6" s="6">
         <f>SUM(R2:R5)</f>
-        <v>660.00000000000011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>660.06</v>
+      </c>
+      <c r="S6" s="6">
+        <f>SUM(S2:S5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
         <f>B3+B4</f>
-        <v>274</v>
+        <v>273.75</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -867,7 +938,7 @@
         <v>110.92847189967488</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>1</v>
       </c>
@@ -880,10 +951,19 @@
       </c>
       <c r="H9" s="4">
         <f>G9*$B$5</f>
-        <v>30.844537165816721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>30.846406531705558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>4.49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
@@ -891,12 +971,12 @@
         <v>3093</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" ref="G10:G12" si="8">F10/$F$6</f>
+        <f t="shared" ref="G10:G12" si="9">F10/$F$6</f>
         <v>0.15932622469479216</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" ref="H10:H12" si="9">G10*$B$5</f>
-        <v>26.288827074640707</v>
+        <f t="shared" ref="H10:H12" si="10">G10*$B$5</f>
+        <v>26.290420336887653</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -905,8 +985,24 @@
         <f>O6-L6*N6^2</f>
         <v>584.37662880959238</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <f>0.00001</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>8.76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
@@ -914,12 +1010,12 @@
         <v>6042</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.31123473960747955</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="9"/>
-        <v>51.353732035234124</v>
+        <f t="shared" si="10"/>
+        <v>51.3568443826302</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -928,8 +1024,14 @@
         <f>12.5-N6</f>
         <v>6.9547468191418123</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <v>4</v>
       </c>
@@ -937,15 +1039,15 @@
         <v>6649</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.34250244681399061</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="9"/>
-        <v>56.512903724308451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>56.516328748776587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
@@ -959,7 +1061,132 @@
       </c>
       <c r="H13" s="4">
         <f>SUM(H9:H12)</f>
-        <v>165</v>
+        <v>165.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6">
+        <v>51.173891206923194</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43.615554010199354</v>
+      </c>
+      <c r="D17" s="6">
+        <v>85.200509967547532</v>
+      </c>
+      <c r="E17" s="6">
+        <v>93.760044815329934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6">
+        <v>35.795319051666411</v>
+      </c>
+      <c r="C18" s="6">
+        <v>15.043382977901405</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8.3761049296862904</v>
+      </c>
+      <c r="E18" s="6">
+        <v>42.462597099881499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="6">
+        <v>30.846406531705558</v>
+      </c>
+      <c r="C19" s="6">
+        <v>26.290420336887653</v>
+      </c>
+      <c r="D19" s="6">
+        <v>51.3568443826302</v>
+      </c>
+      <c r="E19" s="6">
+        <v>56.516328748776587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>B10</f>
+        <v>4.49</v>
+      </c>
+      <c r="D20">
+        <f>B11</f>
+        <v>8.76</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6">
+        <f>SUM(B17:B20)</f>
+        <v>117.81561679029517</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:E21" si="11">SUM(C17:C20)</f>
+        <v>89.439357324988407</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="11"/>
+        <v>153.69345927986402</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="11"/>
+        <v>192.73897066398803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6">
+        <v>181.32762847035323</v>
+      </c>
+      <c r="C22" s="6">
+        <v>129.51407083146438</v>
+      </c>
+      <c r="D22" s="6">
+        <v>191.87604810055711</v>
+      </c>
+      <c r="E22" s="6">
+        <v>157.34225259762528</v>
       </c>
     </row>
   </sheetData>
